--- a/2018-04-02 a 2018-04-06 correlatos,RF,RNF,projeto telas e cronograma/Cronograma.xlsx
+++ b/2018-04-02 a 2018-04-06 correlatos,RF,RNF,projeto telas e cronograma/Cronograma.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="23">
   <si>
     <t>Atividades</t>
   </si>
@@ -159,7 +159,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -173,12 +173,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -489,8 +520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:T14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="T13" sqref="T13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -502,30 +533,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6" t="s">
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6" t="s">
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6" t="s">
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
     </row>
     <row r="2" spans="2:20" x14ac:dyDescent="0.25">
       <c r="E2" s="5" t="s">
@@ -839,12 +870,11 @@
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
-      <c r="M11" s="4" t="s">
-        <v>12</v>
-      </c>
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
+      <c r="P11" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
       <c r="S11" s="4"/>
@@ -867,15 +897,21 @@
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
-      <c r="N12" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="O12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="6"/>
       <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
-      <c r="S12" s="4"/>
-      <c r="T12" s="4"/>
+      <c r="Q12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="R12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="S12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="T12" s="6" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
@@ -895,14 +931,19 @@
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
-      <c r="O13" s="4" t="s">
-        <v>12</v>
-      </c>
       <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="4"/>
-      <c r="S13" s="4"/>
-      <c r="T13" s="4"/>
+      <c r="Q13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="R13" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="S13" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="T13" s="6" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
